--- a/biology/Zoologie/Amauris_phoedon/Amauris_phoedon.xlsx
+++ b/biology/Zoologie/Amauris_phoedon/Amauris_phoedon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Amauris phoedon est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Amauris endémique de l'ile Maurice.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit par Johan Christian Fabricius en 1798 sous le nom de Papilio phoedon. Synonyme : Danais phaedone Godart, 1819[1].
-Noms vernaculaires
- Amauris phoedon se nomme en anglais Mauritian Friar.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit par Johan Christian Fabricius en 1798 sous le nom de Papilio phoedon. Synonyme : Danais phaedone Godart, 1819.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amauris phoedon est un grand papillon noir et blanc, les ailes, blanches sont bordées d'une large bande noire parsemée de petites taches blanches et des ailes antérieures sont barrées d'une bande noire ce qui divise la partie blanche en deux. Les veines sont visibles. le revers est identique.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Amauris phoedon se nomme en anglais Mauritian Friar.
 </t>
         </is>
       </c>
@@ -572,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes-hôtes de ses chenilles sont des Nerium et Tylophora asthmatica[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amauris phoedon est un grand papillon noir et blanc, les ailes, blanches sont bordées d'une large bande noire parsemée de petites taches blanches et des ailes antérieures sont barrées d'une bande noire ce qui divise la partie blanche en deux. Les veines sont visibles. le revers est identique.
 </t>
         </is>
       </c>
@@ -604,14 +623,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes-hôtes de ses chenilles sont des Nerium et Tylophora asthmatica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amauris_phoedon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_phoedon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il ne réside qu'à l'ile Maurice[1].
-Protection
-Inscrit sur la liste rouge de l'UICN il est déclaré vulnérable (VU)[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne réside qu'à l'ile Maurice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amauris_phoedon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_phoedon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inscrit sur la liste rouge de l'UICN il est déclaré vulnérable (VU).
 </t>
         </is>
       </c>
